--- a/debate/cases/US infection survey by PureProfile_showing_vaccinated_higher_infections.xlsx
+++ b/debate/cases/US infection survey by PureProfile_showing_vaccinated_higher_infections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\debate\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE2CBFD-6732-41E5-8B5E-4113DAFF1952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB2BF77-AEA3-4D96-A0EF-01624B28AA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2490" windowWidth="22860" windowHeight="14070" xr2:uid="{FCA3AE10-4DB2-421F-A7BD-1B8FCB9CB7F6}"/>
+    <workbookView xWindow="12975" yWindow="3825" windowWidth="19635" windowHeight="11565" xr2:uid="{FCA3AE10-4DB2-421F-A7BD-1B8FCB9CB7F6}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="29" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7630" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7630" uniqueCount="605">
   <si>
     <t>Response ID</t>
   </si>
@@ -1851,6 +1851,12 @@
   </si>
   <si>
     <t>if you got the shot, you were more likely to have gotten COVID and you got 1.5X more infections than your unvaccinated peers.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -15562,7 +15568,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6712B143-757A-428A-A6F1-6ED1D5425A49}" name="PivotTable1" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6712B143-757A-428A-A6F1-6ED1D5425A49}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -15572,7 +15578,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField name="1" axis="axisPage" showAll="0">
       <items count="3">
         <item x="1"/>
         <item x="0"/>
@@ -15658,7 +15664,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="7" item="1" hier="-1"/>
+    <pageField fld="7" hier="-1"/>
   </pageFields>
   <dataFields count="3">
     <dataField name="Count of ppid" fld="1" subtotal="count" baseField="0" baseItem="0"/>
@@ -15997,13 +16003,12 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -16015,10 +16020,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>603</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -16047,21 +16052,21 @@
         <v>0</v>
       </c>
       <c r="B5" s="6">
-        <v>9</v>
+        <v>147</v>
       </c>
       <c r="C5" s="6">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F5">
         <f>C5/B5</f>
-        <v>0.33333333333333331</v>
+        <v>0.31972789115646261</v>
       </c>
       <c r="H5">
         <f>D5/B5</f>
-        <v>0.44444444444444442</v>
+        <v>0.46258503401360546</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -16179,21 +16184,21 @@
         <v>593</v>
       </c>
       <c r="B11" s="6">
-        <v>362</v>
+        <v>500</v>
       </c>
       <c r="C11" s="6">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="D11" s="5">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.42817679558011051</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.69060773480662985</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
